--- a/eval/math.runtime.xlsx
+++ b/eval/math.runtime.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Documents/uni/thesis/eval/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Documents/uni/thesis/thesis/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F2A61C-C71D-C045-A837-CA36B6FD1E6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F818C99E-BBB9-E74C-B9B9-CA7007747B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="21980" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="21980" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="36">
   <si>
     <t>Real time</t>
   </si>
@@ -117,6 +128,18 @@
   <si>
     <t>CPU time</t>
   </si>
+  <si>
+    <t>Bogus CF</t>
+  </si>
+  <si>
+    <t>CF Flattening</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
 </sst>
 </file>
 
@@ -184,62 +207,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>CPU time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -251,11 +219,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$32</c:f>
+              <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bogus</c:v>
+                  <c:v>Bogus CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -272,7 +240,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$58</c:f>
+              <c:f>Sheet1!$T$2:$T$27</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -358,94 +326,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$33:$B$58</c:f>
+              <c:f>Sheet1!$U$2:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.7285409999997998E-3</c:v>
+                  <c:v>5.2877430335987165E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5470429999999E-3</c:v>
+                  <c:v>2.6412888668952833E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9844580000001004E-3</c:v>
+                  <c:v>4.1623403006572766E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0772909999997999E-3</c:v>
+                  <c:v>2.9417402673667867E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4212489999998E-3</c:v>
+                  <c:v>2.3280847000326763E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2023749999998E-3</c:v>
+                  <c:v>2.7716458662325704E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3681669999998001E-3</c:v>
+                  <c:v>2.3671166668160899E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6162089999998001E-3</c:v>
+                  <c:v>2.3124707997339938E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4356250000001001E-3</c:v>
+                  <c:v>4.8592805007501662E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.612208E-3</c:v>
+                  <c:v>3.0132847326361401E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8639999999999998E-3</c:v>
+                  <c:v>2.4749055656381302E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5663749999998002E-3</c:v>
+                  <c:v>3.1331264011290196E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5969999999999999E-3</c:v>
+                  <c:v>2.9012652665793764E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4582910000000001E-3</c:v>
+                  <c:v>3.3986486325981433E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0690410000001004E-3</c:v>
+                  <c:v>2.4042055659568434E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1071240000000002E-3</c:v>
+                  <c:v>3.2798875329414466E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.270125E-3</c:v>
+                  <c:v>2.5278819669135033E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6456659999998999E-3</c:v>
+                  <c:v>3.1982527668636331E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6154179999998001E-3</c:v>
+                  <c:v>2.6084902674483535E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2819579999997998E-3</c:v>
+                  <c:v>2.353844433067323E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0512500000000002E-3</c:v>
+                  <c:v>3.3999041655382201E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3626250000000002E-3</c:v>
+                  <c:v>2.8451528014556932E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1364579999999002E-3</c:v>
+                  <c:v>2.4104097335415003E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8890420000000999E-3</c:v>
+                  <c:v>2.9621986000468736E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4270840000001001E-3</c:v>
+                  <c:v>3.6416278326214468E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.4104579999999999E-3</c:v>
+                  <c:v>2.8589541332621534E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2E3-6F41-9354-3A57FC842236}"/>
+              <c16:uniqueId val="{00000000-501D-9A42-A2F8-4653181410DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -454,11 +422,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$32</c:f>
+              <c:f>Sheet1!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flatten</c:v>
+                  <c:v>CF Flattening</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -475,7 +443,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$58</c:f>
+              <c:f>Sheet1!$T$2:$T$27</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -561,94 +529,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$33:$C$58</c:f>
+              <c:f>Sheet1!$V$2:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>3.1950419999999002E-3</c:v>
+                  <c:v>3.9173319664162834E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6017079999999999E-3</c:v>
+                  <c:v>2.1686625001166204E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0366249999999998E-3</c:v>
+                  <c:v>2.4430027665706133E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1417930000001001E-3</c:v>
+                  <c:v>2.0139555329175565E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9557909999999E-3</c:v>
+                  <c:v>1.91449723364106E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8674149999998E-3</c:v>
+                  <c:v>2.2630555669214365E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6435829999997998E-3</c:v>
+                  <c:v>1.9647847337182566E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5764589999998999E-3</c:v>
+                  <c:v>1.8656555666287433E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9831670000000001E-3</c:v>
+                  <c:v>3.7160763657690603E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5286250000000001E-3</c:v>
+                  <c:v>1.9912013998691632E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3822079999997999E-3</c:v>
+                  <c:v>1.9902874995750535E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8254589999997999E-3</c:v>
+                  <c:v>2.07355696644905E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9587909999998999E-3</c:v>
+                  <c:v>1.9576763996155898E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9557500000000998E-3</c:v>
+                  <c:v>2.1609875001255763E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.9962920000001E-3</c:v>
+                  <c:v>1.9275514337399102E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7495010000000001E-3</c:v>
+                  <c:v>1.9875097332260266E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.6261659999998999E-3</c:v>
+                  <c:v>1.9613972000418735E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8287099999999002E-3</c:v>
+                  <c:v>2.0848208001552803E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7044579999999001E-3</c:v>
+                  <c:v>1.8794805326857969E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6147100000000001E-3</c:v>
+                  <c:v>2.0767944662414498E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7798319999999999E-3</c:v>
+                  <c:v>2.28313613297359E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5084159999999001E-3</c:v>
+                  <c:v>1.9580666998081097E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.46825E-3</c:v>
+                  <c:v>1.9285611328086764E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6922069999999001E-3</c:v>
+                  <c:v>2.0497194338531668E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8192499999999E-3</c:v>
+                  <c:v>1.9898972670489401E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7114160000001001E-3</c:v>
+                  <c:v>2.00896246678894E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2E3-6F41-9354-3A57FC842236}"/>
+              <c16:uniqueId val="{00000001-501D-9A42-A2F8-4653181410DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -657,11 +625,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$32</c:f>
+              <c:f>Sheet1!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mba</c:v>
+                  <c:v>MBA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -678,7 +646,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$58</c:f>
+              <c:f>Sheet1!$T$2:$T$27</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -764,94 +732,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$33:$D$58</c:f>
+              <c:f>Sheet1!$W$2:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.9859579999999999E-3</c:v>
+                  <c:v>2.5238971669750698E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4592079999998999E-3</c:v>
+                  <c:v>2.1756472330404536E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7883759999998E-3</c:v>
+                  <c:v>1.9910888672408533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.742333E-3</c:v>
+                  <c:v>1.8386500002331198E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0755410000000002E-3</c:v>
+                  <c:v>1.9356888999027367E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7980840000000999E-3</c:v>
+                  <c:v>2.0794875003048132E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2762079999998999E-3</c:v>
+                  <c:v>1.9688458334712732E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6844989999998E-3</c:v>
+                  <c:v>1.8752485996325601E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7989159999999001E-3</c:v>
+                  <c:v>3.2143680672258236E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5704600000000001E-3</c:v>
+                  <c:v>1.9183514328081668E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7774579999998998E-3</c:v>
+                  <c:v>1.8941263667026396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5703329999999E-3</c:v>
+                  <c:v>1.8947957999140834E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7806249999998999E-3</c:v>
+                  <c:v>2.0594819675655601E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6972910000000001E-3</c:v>
+                  <c:v>1.9252277660901467E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2941250000000002E-3</c:v>
+                  <c:v>1.9369346995517799E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8097089999998002E-3</c:v>
+                  <c:v>2.0063875661435231E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8694160000000001E-3</c:v>
+                  <c:v>2.0092027664456169E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.888084E-3</c:v>
+                  <c:v>2.05169306633858E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7117899999999002E-3</c:v>
+                  <c:v>2.3527069667276568E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5699589999998002E-3</c:v>
+                  <c:v>1.9133958341020166E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0252499999997998E-3</c:v>
+                  <c:v>1.8636763656104366E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.8298329999999999E-3</c:v>
+                  <c:v>1.9442388991592435E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7190409999999E-3</c:v>
+                  <c:v>1.8333333662061066E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6898749999998998E-3</c:v>
+                  <c:v>1.9455958340889336E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.4342920000001E-3</c:v>
+                  <c:v>1.9181166659109267E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.8874159999999999E-3</c:v>
+                  <c:v>2.0500097654197167E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A2E3-6F41-9354-3A57FC842236}"/>
+              <c16:uniqueId val="{00000002-501D-9A42-A2F8-4653181410DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -860,18 +828,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$32</c:f>
+              <c:f>Sheet1!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>orig</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -881,7 +849,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$33:$A$58</c:f>
+              <c:f>Sheet1!$T$2:$T$27</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -967,94 +935,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$33:$E$58</c:f>
+              <c:f>Sheet1!$X$2:$X$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.5699590000000999E-3</c:v>
+                  <c:v>3.65127640009935E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8257919999997998E-3</c:v>
+                  <c:v>2.2061319336595799E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9215419999999004E-3</c:v>
+                  <c:v>2.2407666326519832E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5291680000000998E-3</c:v>
+                  <c:v>1.9425082995439834E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8171659999999999E-3</c:v>
+                  <c:v>1.930748599867603E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1795409999998996E-3</c:v>
+                  <c:v>2.2518082998430999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4479580000000001E-3</c:v>
+                  <c:v>1.8609514004007566E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8078339999999002E-3</c:v>
+                  <c:v>1.9952513999063101E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6421249999999002E-3</c:v>
+                  <c:v>4.1111319331927569E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6098739999999999E-3</c:v>
+                  <c:v>1.9225444328185334E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3082930000001001E-3</c:v>
+                  <c:v>1.9717819669798031E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6348739999999E-3</c:v>
+                  <c:v>1.8588569319642034E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8050829999999001E-3</c:v>
+                  <c:v>2.03695416700308E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9630000000001001E-3</c:v>
+                  <c:v>1.9597680672935238E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8849580000001001E-3</c:v>
+                  <c:v>1.9100249660065498E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8749990000000998E-3</c:v>
+                  <c:v>1.9282305336673699E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9328340000000998E-3</c:v>
+                  <c:v>1.9159527999969766E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.5580830000000001E-3</c:v>
+                  <c:v>2.2721861341172631E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8657079999997999E-3</c:v>
+                  <c:v>1.9369722002011234E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.5676670000000998E-3</c:v>
+                  <c:v>1.8467375324689766E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2989579999997002E-3</c:v>
+                  <c:v>1.953012566931037E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.9954579999999999E-3</c:v>
+                  <c:v>1.9891583332840367E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5037919999999002E-3</c:v>
+                  <c:v>1.8851333672500865E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.8951249999998999E-3</c:v>
+                  <c:v>2.107013866528477E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1140400000000002E-3</c:v>
+                  <c:v>2.1302805662950602E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1366670000000998E-3</c:v>
+                  <c:v>1.99521530072767E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A2E3-6F41-9354-3A57FC842236}"/>
+              <c16:uniqueId val="{00000003-501D-9A42-A2F8-4653181410DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1068,16 +1036,76 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="432147375"/>
-        <c:axId val="515686207"/>
+        <c:axId val="2091480607"/>
+        <c:axId val="1946036736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="432147375"/>
+        <c:axId val="2091480607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> program</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1115,7 +1143,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515686207"/>
+        <c:crossAx val="1946036736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515686207"/>
+        <c:axId val="1946036736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,6 +1171,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Real time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1174,7 +1257,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432147375"/>
+        <c:crossAx val="2091480607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,62 +1358,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Real time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1342,11 +1370,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$U$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bogus</c:v>
+                  <c:v>Bogus CF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1363,7 +1391,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$T$33:$T$58</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -1449,94 +1477,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$U$33:$U$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.2249333000217999E-2</c:v>
+                  <c:v>2.0738985666666532E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.16419579992361E-2</c:v>
+                  <c:v>1.14324036666665E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0465334000618798E-2</c:v>
+                  <c:v>2.3455735666666738E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8869583000196099E-2</c:v>
+                  <c:v>1.3289666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.09197500007576E-2</c:v>
+                  <c:v>9.7566109999998995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0191667001199599E-2</c:v>
+                  <c:v>1.0760693666666599E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8542249999882101E-2</c:v>
+                  <c:v>1.0532054999999867E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.89388329999928E-2</c:v>
+                  <c:v>1.0080777999999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2790790997532801E-2</c:v>
+                  <c:v>2.1156347333333502E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9942582999647102E-2</c:v>
+                  <c:v>1.29749996666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1100166999531201E-2</c:v>
+                  <c:v>1.1237097000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.02401249989634E-2</c:v>
+                  <c:v>1.7006166666666565E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9791916998656199E-2</c:v>
+                  <c:v>1.3220221333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0331083000200999E-2</c:v>
+                  <c:v>1.5414318999999732E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0013375000417E-2</c:v>
+                  <c:v>1.0252194666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0517042001301802E-2</c:v>
+                  <c:v>1.6817735666666667E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.83913750006468E-2</c:v>
+                  <c:v>1.1855541666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.91221669992955E-2</c:v>
+                  <c:v>1.5321222666666599E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.91461249996791E-2</c:v>
+                  <c:v>1.2827111666666433E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9123791000310999E-2</c:v>
+                  <c:v>1.0364735666666633E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8945583000458999E-2</c:v>
+                  <c:v>1.6855833666666532E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9408542000746799E-2</c:v>
+                  <c:v>1.4474986666666698E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8143792000046201E-2</c:v>
+                  <c:v>1.0748805666666467E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8962916998134401E-2</c:v>
+                  <c:v>1.4233055666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.16035419980471E-2</c:v>
+                  <c:v>2.1236153666666563E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.94555830021272E-2</c:v>
+                  <c:v>1.3704263333333402E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E26-D94A-A7E0-967ACB6A96F1}"/>
+              <c16:uniqueId val="{00000000-B37F-7E43-B753-FB17F86228D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1545,11 +1573,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$V$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>flatten</c:v>
+                  <c:v>CF Flattening</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1566,7 +1594,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$T$33:$T$58</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -1652,94 +1680,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$V$33:$V$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.17134999984409E-2</c:v>
+                  <c:v>5.3925550000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9725292000657601E-2</c:v>
+                  <c:v>3.3396803333333338E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4347958002181199E-2</c:v>
+                  <c:v>4.0486113333332999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9394541999645298E-2</c:v>
+                  <c:v>4.1117776666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.08396249981888E-2</c:v>
+                  <c:v>3.0993889999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.08124999990104E-2</c:v>
+                  <c:v>3.2869159999999336E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.11624579969793E-2</c:v>
+                  <c:v>3.7524583333332002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8546499999501899E-2</c:v>
+                  <c:v>3.1679723333331998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3507833000621699E-2</c:v>
+                  <c:v>7.891166333333267E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0422083998710101E-2</c:v>
+                  <c:v>3.1407363333334336E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2137957999802799E-2</c:v>
+                  <c:v>3.3347089999999336E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.053375000105E-2</c:v>
+                  <c:v>3.7409583333332997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8847708997782299E-2</c:v>
+                  <c:v>3.6581243333333666E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0519000001513601E-2</c:v>
+                  <c:v>3.8275136666666662E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.03430419969663E-2</c:v>
+                  <c:v>3.1327506666666005E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9568874999094901E-2</c:v>
+                  <c:v>3.2871949999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8452915999660001E-2</c:v>
+                  <c:v>3.3956116666665668E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.87809579983877E-2</c:v>
+                  <c:v>4.048556000000033E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7994792000536101E-2</c:v>
+                  <c:v>3.2986939999998001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7815458999393699E-2</c:v>
+                  <c:v>3.2150560000000334E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8849208998290099E-2</c:v>
+                  <c:v>4.0279436666667669E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8877042002713999E-2</c:v>
+                  <c:v>3.1201526666665333E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8891792002250399E-2</c:v>
+                  <c:v>3.6872636666666E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7557708000822399E-2</c:v>
+                  <c:v>3.8119433333333335E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8667333999474001E-2</c:v>
+                  <c:v>3.4144169999999335E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8748665999737499E-2</c:v>
+                  <c:v>3.4103883333334336E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E26-D94A-A7E0-967ACB6A96F1}"/>
+              <c16:uniqueId val="{00000001-B37F-7E43-B753-FB17F86228D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1748,11 +1776,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$W$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mba</c:v>
+                  <c:v>MBA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1769,7 +1797,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$T$33:$T$58</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -1855,94 +1883,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:f>Sheet1!$W$33:$W$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2.1270833000016798E-2</c:v>
+                  <c:v>3.5037916666667995E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8808959001034901E-2</c:v>
+                  <c:v>4.3437639999998334E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0412333000422202E-2</c:v>
+                  <c:v>3.0319443333332668E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8645249998371499E-2</c:v>
+                  <c:v>2.7982916666667002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0510792001005002E-2</c:v>
+                  <c:v>2.9580546666666332E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.90140420017996E-2</c:v>
+                  <c:v>3.1429589999999331E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0338624999567401E-2</c:v>
+                  <c:v>2.9441669999999663E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8313291999220299E-2</c:v>
+                  <c:v>2.6605416666666006E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1377459001087101E-2</c:v>
+                  <c:v>3.8949306666665666E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0075167001777999E-2</c:v>
+                  <c:v>2.5650423333333002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.01999579985567E-2</c:v>
+                  <c:v>2.6866530000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8459208000422202E-2</c:v>
+                  <c:v>2.676944333333433E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9174917000782402E-2</c:v>
+                  <c:v>3.2120833333332001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.90254580011242E-2</c:v>
+                  <c:v>2.840014000000033E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9070999998803E-2</c:v>
+                  <c:v>2.8771666666666004E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9031084000744099E-2</c:v>
+                  <c:v>2.6793893333332333E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8828790998668399E-2</c:v>
+                  <c:v>3.136083000000033E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.87662499993166E-2</c:v>
+                  <c:v>3.2112499999999663E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8735999998170799E-2</c:v>
+                  <c:v>3.2315273333332999E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7824667000240799E-2</c:v>
+                  <c:v>3.1167363333331663E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9337124998855801E-2</c:v>
+                  <c:v>2.9431526666664994E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9588082999689501E-2</c:v>
+                  <c:v>3.0227916666666333E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8388291999144699E-2</c:v>
+                  <c:v>2.692069333333233E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8331208000745301E-2</c:v>
+                  <c:v>2.9028056666665337E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.95107909967191E-2</c:v>
+                  <c:v>3.1694026666666333E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.97167090009315E-2</c:v>
+                  <c:v>3.0197086666667997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E26-D94A-A7E0-967ACB6A96F1}"/>
+              <c16:uniqueId val="{00000002-B37F-7E43-B753-FB17F86228D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1951,18 +1979,18 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$X$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>orig</c:v>
+                  <c:v>Original</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="tx2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1972,7 +2000,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$T$33:$T$58</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
@@ -2058,94 +2086,94 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$X$33:$X$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>1.88563330011675E-2</c:v>
+                  <c:v>4.3517923333331997E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8674208997253999E-2</c:v>
+                  <c:v>5.2482919999999322E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3035124999296299E-2</c:v>
+                  <c:v>4.0950416666664666E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8351291000726602E-2</c:v>
+                  <c:v>2.6718476666667003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9483874999423199E-2</c:v>
+                  <c:v>3.1464439999999336E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.69346669992955E-2</c:v>
+                  <c:v>4.3953746666666998E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.82439170021098E-2</c:v>
+                  <c:v>2.5099863333332664E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0547292002447599E-2</c:v>
+                  <c:v>3.0817079999998667E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1730541997385399E-2</c:v>
+                  <c:v>5.0730969999999336E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9905334000213701E-2</c:v>
+                  <c:v>2.7457499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0842583999183199E-2</c:v>
+                  <c:v>2.9131116666666333E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.89825829984329E-2</c:v>
+                  <c:v>2.6934440000000331E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.92048749995592E-2</c:v>
+                  <c:v>3.3453613333333334E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1149249998416001E-2</c:v>
+                  <c:v>3.1093056666667003E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.88646660026279E-2</c:v>
+                  <c:v>2.8731386666665999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9586082999012398E-2</c:v>
+                  <c:v>2.9357640000000997E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8506499996874402E-2</c:v>
+                  <c:v>3.1929449999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9058666999626401E-2</c:v>
+                  <c:v>3.8423053333333005E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8824582999513902E-2</c:v>
+                  <c:v>3.5129306666666998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8417166997096501E-2</c:v>
+                  <c:v>2.7858893333333663E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9471584000712E-2</c:v>
+                  <c:v>2.9481106666666003E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1540541001741E-2</c:v>
+                  <c:v>2.8019023333332332E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8167999998695401E-2</c:v>
+                  <c:v>3.0374166666666002E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2115708001365399E-2</c:v>
+                  <c:v>2.8524579999998669E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.3398625002300801E-2</c:v>
+                  <c:v>3.2884716666664996E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1734917001595001E-2</c:v>
+                  <c:v>2.8509853333332663E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E26-D94A-A7E0-967ACB6A96F1}"/>
+              <c16:uniqueId val="{00000003-B37F-7E43-B753-FB17F86228D1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2159,16 +2187,76 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="318661743"/>
-        <c:axId val="318655503"/>
+        <c:axId val="2095209456"/>
+        <c:axId val="1638736128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="318661743"/>
+        <c:axId val="2095209456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> program</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2206,7 +2294,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318655503"/>
+        <c:crossAx val="1638736128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="318655503"/>
+        <c:axId val="1638736128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,6 +2322,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2265,7 +2408,7 @@
             <a:endParaRPr lang="en-AT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318661743"/>
+        <c:crossAx val="2095209456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3442,23 +3585,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>4281</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>26826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BCFF227-F755-784C-BABE-B5A629FA349E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D00192-7B4A-E144-9892-25E4DBE01757}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3478,23 +3621,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>18550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>183793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>14269</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F301EB1C-8E7E-694E-A494-F532D855322F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD209FD-5095-7445-AC1B-A241519C8B1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3836,18 +3979,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="T12" zoomScale="89" workbookViewId="0">
+      <selection activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="20" max="20" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3863,8 +4007,47 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3880,8 +4063,51 @@
       <c r="E2">
         <v>1.88563330011675E-2</v>
       </c>
+      <c r="H2">
+        <v>0.1004053330107126</v>
+      </c>
+      <c r="I2">
+        <v>7.3112626007059506E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.42867909930646E-2</v>
+      </c>
+      <c r="K2">
+        <v>6.9999750005081296E-2</v>
+      </c>
+      <c r="N2">
+        <v>3.5977624997030902E-2</v>
+      </c>
+      <c r="O2">
+        <v>2.2693832986988099E-2</v>
+      </c>
+      <c r="P2">
+        <v>2.01592910161707E-2</v>
+      </c>
+      <c r="Q2">
+        <v>2.0682208996731701E-2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(B2,H2,N2)</f>
+        <v>5.2877430335987165E-2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:X17" si="0">AVERAGE(C2,I2,O2)</f>
+        <v>3.9173319664162834E-2</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2.5238971669750698E-2</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>3.65127640009935E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3897,8 +4123,51 @@
       <c r="E3">
         <v>1.8674208997253999E-2</v>
       </c>
+      <c r="H3">
+        <v>3.1308000005083103E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.6646167010767299E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.74898749776184E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.8019165998557499E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.62887080025393E-2</v>
+      </c>
+      <c r="O3">
+        <v>1.8688415992073701E-2</v>
+      </c>
+      <c r="P3">
+        <v>1.8970583012560299E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.9490583013975899E-2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U27" si="1">AVERAGE(B3,H3,N3)</f>
+        <v>2.6412888668952833E-2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>2.1686625001166204E-2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>2.1756472330404536E-2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>2.2061319336595799E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3914,8 +4183,51 @@
       <c r="E4">
         <v>2.3035124999296299E-2</v>
       </c>
+      <c r="H4">
+        <v>3.0608750006649602E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.6356374990427801E-2</v>
+      </c>
+      <c r="J4">
+        <v>1.9084583007497699E-2</v>
+      </c>
+      <c r="K4">
+        <v>1.89237909798976E-2</v>
+      </c>
+      <c r="N4">
+        <v>7.3796125012449906E-2</v>
+      </c>
+      <c r="O4">
+        <v>2.2585750004509401E-2</v>
+      </c>
+      <c r="P4">
+        <v>2.0235750009305699E-2</v>
+      </c>
+      <c r="Q4">
+        <v>2.52640830003656E-2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>4.1623403006572766E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>2.4430027665706133E-2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="0"/>
+        <v>1.9910888672408533E-2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="0"/>
+        <v>2.2407666326519832E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3931,8 +4243,51 @@
       <c r="E5">
         <v>1.8351291000726602E-2</v>
       </c>
+      <c r="H5">
+        <v>2.5969375012209601E-2</v>
+      </c>
+      <c r="I5">
+        <v>1.79623329895548E-2</v>
+      </c>
+      <c r="J5">
+        <v>1.8084542010910799E-2</v>
+      </c>
+      <c r="K5">
+        <v>2.0377957989694499E-2</v>
+      </c>
+      <c r="N5">
+        <v>4.3413250008597901E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.3061790998326601E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.8429707997711299E-2</v>
+      </c>
+      <c r="Q5">
+        <v>1.95459999958984E-2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>2.9417402673667867E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>2.0139555329175565E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="0"/>
+        <v>1.8386500002331198E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>1.9425082995439834E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3948,8 +4303,51 @@
       <c r="E6">
         <v>1.9483874999423199E-2</v>
       </c>
+      <c r="H6">
+        <v>2.3877666011685499E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.7994791996898098E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.8135374994017101E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.8218749988591298E-2</v>
+      </c>
+      <c r="N6">
+        <v>2.5045124988537198E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.86005000141449E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.9424500002059999E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.02198330080136E-2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>2.3280847000326763E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>1.91449723364106E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>1.9356888999027367E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>1.930748599867603E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3965,8 +4363,51 @@
       <c r="E7">
         <v>2.69346669992955E-2</v>
       </c>
+      <c r="H7">
+        <v>3.4286624984815703E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.6710917009040699E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.23052499932236E-2</v>
+      </c>
+      <c r="K7">
+        <v>1.9847666000714501E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.86710840009618E-2</v>
+      </c>
+      <c r="O7">
+        <v>2.0368249999592001E-2</v>
+      </c>
+      <c r="P7">
+        <v>2.1065333014121199E-2</v>
+      </c>
+      <c r="Q7">
+        <v>2.0771915995283E-2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>2.7716458662325704E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>2.2630555669214365E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="0"/>
+        <v>2.0794875003048132E-2</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>2.2518082998430999E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3982,8 +4423,51 @@
       <c r="E8">
         <v>1.82439170021098E-2</v>
       </c>
+      <c r="H8">
+        <v>2.6671708008507201E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.97093340102583E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.9682667014421801E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.9360750011401199E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.5799541996093401E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.8071750004310098E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.9044082990149001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.8223874998511701E-2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>2.3671166668160899E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>1.9647847337182566E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="0"/>
+        <v>1.9688458334712732E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>1.8609514004007566E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3999,8 +4483,51 @@
       <c r="E9">
         <v>2.0547292002447599E-2</v>
       </c>
+      <c r="H9">
+        <v>2.510520798387E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.8820458004483901E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.9363041006727099E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.17868750041816E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.5330083008156999E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.86027089948765E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.8581124983029398E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.7523374990560101E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>2.3124707997339938E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>1.8656555666287433E-2</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>1.8752485996325601E-2</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>1.9952513999063101E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4016,8 +4543,51 @@
       <c r="E10">
         <v>2.1730541997385399E-2</v>
       </c>
+      <c r="H10">
+        <v>3.2279916020342997E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.3952874995302399E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.1496333007235E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.2066208010073699E-2</v>
+      </c>
+      <c r="N10">
+        <v>9.0707708004629198E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.4021582977147704E-2</v>
+      </c>
+      <c r="P10">
+        <v>5.35572500084526E-2</v>
+      </c>
+      <c r="Q10">
+        <v>7.9537207988323602E-2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>4.8592805007501662E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>3.7160763657690603E-2</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="0"/>
+        <v>3.2143680672258236E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>4.1111319331927569E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4033,8 +4603,51 @@
       <c r="E11">
         <v>1.9905334000213701E-2</v>
       </c>
+      <c r="H11">
+        <v>2.7440374979050799E-2</v>
+      </c>
+      <c r="I11">
+        <v>1.85133749910164E-2</v>
+      </c>
+      <c r="J11">
+        <v>1.8312959000468199E-2</v>
+      </c>
+      <c r="K11">
+        <v>1.83755829930305E-2</v>
+      </c>
+      <c r="N11">
+        <v>4.3015584000386298E-2</v>
+      </c>
+      <c r="O11">
+        <v>2.0800583006348398E-2</v>
+      </c>
+      <c r="P11">
+        <v>1.91624169819988E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.9395415991311799E-2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>3.0132847326361401E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>1.9912013998691632E-2</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="0"/>
+        <v>1.9183514328081668E-2</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>1.9225444328185334E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4050,8 +4663,51 @@
       <c r="E12">
         <v>2.0842583999183199E-2</v>
       </c>
+      <c r="H12">
+        <v>2.6723291986854698E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.89365419792011E-2</v>
+      </c>
+      <c r="J12">
+        <v>1.8265332997543699E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.89679999893996E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.6423707982758001E-2</v>
+      </c>
+      <c r="O12">
+        <v>1.8634125008247699E-2</v>
+      </c>
+      <c r="P12">
+        <v>1.8358500004978798E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.93428750208113E-2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>2.4749055656381302E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>1.9902874995750535E-2</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="0"/>
+        <v>1.8941263667026396E-2</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>1.9717819669798031E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4067,8 +4723,51 @@
       <c r="E13">
         <v>1.89825829984329E-2</v>
       </c>
+      <c r="H13">
+        <v>2.5464958016527799E-2</v>
+      </c>
+      <c r="I13">
+        <v>1.8955084000481199E-2</v>
+      </c>
+      <c r="J13">
+        <v>1.8125332979252499E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.8015874986303901E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.8288709018379401E-2</v>
+      </c>
+      <c r="O13">
+        <v>2.27178749919403E-2</v>
+      </c>
+      <c r="P13">
+        <v>2.0259333017747801E-2</v>
+      </c>
+      <c r="Q13">
+        <v>1.8767249974189298E-2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>3.1331264011290196E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>2.07355696644905E-2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="0"/>
+        <v>1.8947957999140834E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>1.8588569319642034E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4084,8 +4783,51 @@
       <c r="E14">
         <v>1.92048749995592E-2</v>
       </c>
+      <c r="H14">
+        <v>2.5662875006673799E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.8128499999875199E-2</v>
+      </c>
+      <c r="J14">
+        <v>2.1504333999473602E-2</v>
+      </c>
+      <c r="K14">
+        <v>2.2616417001700001E-2</v>
+      </c>
+      <c r="N14">
+        <v>4.1583165992051301E-2</v>
+      </c>
+      <c r="O14">
+        <v>2.1754082990810199E-2</v>
+      </c>
+      <c r="P14">
+        <v>2.1105208026710801E-2</v>
+      </c>
+      <c r="Q14">
+        <v>1.9287333008833198E-2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>2.9012652665793764E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>1.9576763996155898E-2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="0"/>
+        <v>2.0594819675655601E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>2.03695416700308E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4101,8 +4843,51 @@
       <c r="E15">
         <v>2.1149249998416001E-2</v>
       </c>
+      <c r="H15">
+        <v>4.3018750002374803E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.13082080008462E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.9162874988978701E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.7756417015334501E-2</v>
+      </c>
+      <c r="N15">
+        <v>3.8609625975368503E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.30024170014075E-2</v>
+      </c>
+      <c r="P15">
+        <v>1.9568499992601501E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.9887375005055202E-2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>3.3986486325981433E-2</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>2.1609875001255763E-2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>1.9252277660901467E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>1.9597680672935238E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4118,8 +4903,51 @@
       <c r="E16">
         <v>1.88646660026279E-2</v>
       </c>
+      <c r="H16">
+        <v>2.5125207990640702E-2</v>
+      </c>
+      <c r="I16">
+        <v>1.91781670146156E-2</v>
+      </c>
+      <c r="J16">
+        <v>2.0867374987574201E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.8520207988331001E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.6987583987647602E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.83053340006154E-2</v>
+      </c>
+      <c r="P16">
+        <v>1.81696660001762E-2</v>
+      </c>
+      <c r="Q16">
+        <v>1.9915874989237602E-2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>2.4042055659568434E-2</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>1.9275514337399102E-2</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="0"/>
+        <v>1.9369346995517799E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>1.9100249660065498E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4135,8 +4963,51 @@
       <c r="E17">
         <v>1.9586082999012398E-2</v>
       </c>
+      <c r="H17">
+        <v>2.9974625009344801E-2</v>
+      </c>
+      <c r="I17">
+        <v>1.91381250042468E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.8800333986291599E-2</v>
+      </c>
+      <c r="K17">
+        <v>1.9309374998556401E-2</v>
+      </c>
+      <c r="N17">
+        <v>4.79049589775968E-2</v>
+      </c>
+      <c r="O17">
+        <v>2.09182919934391E-2</v>
+      </c>
+      <c r="P17">
+        <v>2.2360208997269999E-2</v>
+      </c>
+      <c r="Q17">
+        <v>1.89514580124523E-2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>3.2798875329414466E-2</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>1.9875097332260266E-2</v>
+      </c>
+      <c r="W17">
+        <f>AVERAGE(D17,J17,P17)</f>
+        <v>2.0063875661435231E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>1.9282305336673699E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4152,8 +5023,51 @@
       <c r="E18">
         <v>1.8506499996874402E-2</v>
       </c>
+      <c r="H18">
+        <v>2.6332834007916899E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.9653625000501E-2</v>
+      </c>
+      <c r="J18">
+        <v>2.0784124993951901E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.92014589847531E-2</v>
+      </c>
+      <c r="N18">
+        <v>3.11122499988414E-2</v>
+      </c>
+      <c r="O18">
+        <v>2.0735375001095201E-2</v>
+      </c>
+      <c r="P18">
+        <v>2.06631670007482E-2</v>
+      </c>
+      <c r="Q18">
+        <v>1.97706250182818E-2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>2.5278819669135033E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V27" si="2">AVERAGE(C18,I18,O18)</f>
+        <v>1.9613972000418735E-2</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W27" si="3">AVERAGE(D18,J18,P18)</f>
+        <v>2.0092027664456169E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X27" si="4">AVERAGE(E18,K18,Q18)</f>
+        <v>1.9159527999969766E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4169,8 +5083,51 @@
       <c r="E19">
         <v>1.9058666999626401E-2</v>
       </c>
+      <c r="H19">
+        <v>2.57081250019837E-2</v>
+      </c>
+      <c r="I19">
+        <v>1.8672291014809099E-2</v>
+      </c>
+      <c r="J19">
+        <v>2.0123750000493601E-2</v>
+      </c>
+      <c r="K19">
+        <v>1.87773340148851E-2</v>
+      </c>
+      <c r="N19">
+        <v>5.1117291004629799E-2</v>
+      </c>
+      <c r="O19">
+        <v>2.50913749914616E-2</v>
+      </c>
+      <c r="P19">
+        <v>2.26607919903472E-2</v>
+      </c>
+      <c r="Q19">
+        <v>3.03295830090064E-2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>3.1982527668636331E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>2.0848208001552803E-2</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>2.05169306633858E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>2.2721861341172631E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4186,8 +5143,51 @@
       <c r="E20">
         <v>1.8824582999513902E-2</v>
       </c>
+      <c r="H20">
+        <v>2.45304580021183E-2</v>
+      </c>
+      <c r="I20">
+        <v>1.7621207982301702E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.9310000003315501E-2</v>
+      </c>
+      <c r="K20">
+        <v>1.7883416992845E-2</v>
+      </c>
+      <c r="N20">
+        <v>3.4578125021653201E-2</v>
+      </c>
+      <c r="O20">
+        <v>2.07684159977361E-2</v>
+      </c>
+      <c r="P20">
+        <v>3.2535209000343401E-2</v>
+      </c>
+      <c r="Q20">
+        <v>2.14011660136748E-2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>2.6084902674483535E-2</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>1.8794805326857969E-2</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="3"/>
+        <v>2.3527069667276568E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>1.9369722002011234E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4203,8 +5203,51 @@
       <c r="E21">
         <v>1.8417166997096501E-2</v>
       </c>
+      <c r="H21">
+        <v>2.5362541986396502E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.62941669789142E-2</v>
+      </c>
+      <c r="J21">
+        <v>2.0842583006014999E-2</v>
+      </c>
+      <c r="K21">
+        <v>1.88352919940371E-2</v>
+      </c>
+      <c r="N21">
+        <v>2.6129000005312202E-2</v>
+      </c>
+      <c r="O21">
+        <v>1.8194208008935599E-2</v>
+      </c>
+      <c r="P21">
+        <v>1.8734625016804701E-2</v>
+      </c>
+      <c r="Q21">
+        <v>1.81496669829357E-2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>2.353844433067323E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>2.0767944662414498E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="3"/>
+        <v>1.9133958341020166E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>1.8467375324689766E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4220,8 +5263,51 @@
       <c r="E22">
         <v>1.9471584000712E-2</v>
       </c>
+      <c r="H22">
+        <v>2.8305374988121901E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.6444499992066901E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.8087082979036401E-2</v>
+      </c>
+      <c r="K22">
+        <v>1.8221959006041202E-2</v>
+      </c>
+      <c r="N22">
+        <v>5.4746166977565701E-2</v>
+      </c>
+      <c r="O22">
+        <v>2.3200374998850699E-2</v>
+      </c>
+      <c r="P22">
+        <v>1.8486082990420899E-2</v>
+      </c>
+      <c r="Q22">
+        <v>2.0896834001177901E-2</v>
+      </c>
+      <c r="T22" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>3.3999041655382201E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>2.28313613297359E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="3"/>
+        <v>1.8636763656104366E-2</v>
+      </c>
+      <c r="X22">
+        <f>AVERAGE(E22,K22,Q22)</f>
+        <v>1.953012566931037E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4237,8 +5323,51 @@
       <c r="E23">
         <v>2.1540541001741E-2</v>
       </c>
+      <c r="H23">
+        <v>2.7611000026809E-2</v>
+      </c>
+      <c r="I23">
+        <v>1.94607920129783E-2</v>
+      </c>
+      <c r="J23">
+        <v>1.9794541993178399E-2</v>
+      </c>
+      <c r="K23">
+        <v>1.8571083986898801E-2</v>
+      </c>
+      <c r="N23">
+        <v>3.8335042016114998E-2</v>
+      </c>
+      <c r="O23">
+        <v>2.0404166978550999E-2</v>
+      </c>
+      <c r="P23">
+        <v>1.89445419819094E-2</v>
+      </c>
+      <c r="Q23">
+        <v>1.9563125009881301E-2</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>2.8451528014556932E-2</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>1.9580666998081097E-2</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="3"/>
+        <v>1.9442388991592435E-2</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>1.9891583332840367E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4254,8 +5383,51 @@
       <c r="E24">
         <v>1.8167999998695401E-2</v>
       </c>
+      <c r="H24">
+        <v>2.8090250008972299E-2</v>
+      </c>
+      <c r="I24">
+        <v>1.9577500002924301E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.7864791996544199E-2</v>
+      </c>
+      <c r="K24">
+        <v>1.8263042002217799E-2</v>
+      </c>
+      <c r="N24">
+        <v>2.6078249997226501E-2</v>
+      </c>
+      <c r="O24">
+        <v>1.9387541979085599E-2</v>
+      </c>
+      <c r="P24">
+        <v>1.87469169904943E-2</v>
+      </c>
+      <c r="Q24">
+        <v>2.0122959016589399E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>2.4104097335415003E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>1.9285611328086764E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>1.8333333662061066E-2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>1.8851333672500865E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4271,8 +5443,51 @@
       <c r="E25">
         <v>2.2115708001365399E-2</v>
       </c>
+      <c r="H25">
+        <v>2.8503208013716998E-2</v>
+      </c>
+      <c r="I25">
+        <v>1.8871667009079801E-2</v>
+      </c>
+      <c r="J25">
+        <v>2.0132125006057301E-2</v>
+      </c>
+      <c r="K25">
+        <v>1.8454250006470801E-2</v>
+      </c>
+      <c r="N25">
+        <v>4.1399832989554797E-2</v>
+      </c>
+      <c r="O25">
+        <v>2.5062208005692799E-2</v>
+      </c>
+      <c r="P25">
+        <v>1.99045420158654E-2</v>
+      </c>
+      <c r="Q25">
+        <v>2.2640457988018101E-2</v>
+      </c>
+      <c r="T25" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>2.9621986000468736E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>2.0497194338531668E-2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="3"/>
+        <v>1.9455958340889336E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>2.107013866528477E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4288,8 +5503,51 @@
       <c r="E26">
         <v>2.3398625002300801E-2</v>
       </c>
+      <c r="H26">
+        <v>2.76997089968062E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.9928334018914001E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.8352916988078501E-2</v>
+      </c>
+      <c r="K26">
+        <v>1.8731333984760502E-2</v>
+      </c>
+      <c r="N26">
+        <v>5.9945583983790102E-2</v>
+      </c>
+      <c r="O26">
+        <v>2.11012499930802E-2</v>
+      </c>
+      <c r="P26">
+        <v>1.9679791992530199E-2</v>
+      </c>
+      <c r="Q26">
+        <v>2.1778458001790499E-2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>3.6416278326214468E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>1.9898972670489401E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="3"/>
+        <v>1.9181166659109267E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>2.1302805662950602E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4305,8 +5563,51 @@
       <c r="E27">
         <v>2.1734917001595001E-2</v>
       </c>
+      <c r="H27">
+        <v>2.7969082992058199E-2</v>
+      </c>
+      <c r="I27">
+        <v>1.9487000012304599E-2</v>
+      </c>
+      <c r="J27">
+        <v>1.9898499973351101E-2</v>
+      </c>
+      <c r="K27">
+        <v>1.83512500079814E-2</v>
+      </c>
+      <c r="N27">
+        <v>3.83439580036792E-2</v>
+      </c>
+      <c r="O27">
+        <v>2.20332079916261E-2</v>
+      </c>
+      <c r="P27">
+        <v>2.18850839883089E-2</v>
+      </c>
+      <c r="Q27">
+        <v>1.97702920122537E-2</v>
+      </c>
+      <c r="T27" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>2.8589541332621534E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>2.00896246678894E-2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="3"/>
+        <v>2.0500097654197167E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>1.99521530072767E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4322,8 +5623,47 @@
       <c r="E32" t="s">
         <v>4</v>
       </c>
+      <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" t="s">
+        <v>33</v>
+      </c>
+      <c r="W32" t="s">
+        <v>34</v>
+      </c>
+      <c r="X32" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4339,8 +5679,51 @@
       <c r="E33">
         <v>2.5699590000000999E-3</v>
       </c>
+      <c r="H33">
+        <v>3.7785623999999997E-2</v>
+      </c>
+      <c r="I33">
+        <v>8.9507070000003006E-3</v>
+      </c>
+      <c r="J33">
+        <v>4.8249580000003E-3</v>
+      </c>
+      <c r="K33">
+        <v>7.7740419999997997E-3</v>
+      </c>
+      <c r="N33">
+        <v>2.07027919999998E-2</v>
+      </c>
+      <c r="O33">
+        <v>4.0319160000000997E-3</v>
+      </c>
+      <c r="P33">
+        <v>2.7004590000000999E-3</v>
+      </c>
+      <c r="Q33">
+        <v>2.7113759999997E-3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33">
+        <f>AVERAGE(B33,H33,N33)</f>
+        <v>2.0738985666666532E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:X48" si="5">AVERAGE(C33,I33,O33)</f>
+        <v>5.3925550000001E-3</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="5"/>
+        <v>3.5037916666667995E-3</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>4.3517923333331997E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -4356,8 +5739,51 @@
       <c r="E34">
         <v>2.8257919999997998E-3</v>
       </c>
+      <c r="H34">
+        <v>1.6792624999999801E-2</v>
+      </c>
+      <c r="I34">
+        <v>4.3405420000000002E-3</v>
+      </c>
+      <c r="J34">
+        <v>6.9670409999997001E-3</v>
+      </c>
+      <c r="K34">
+        <v>1.0152916999999999E-2</v>
+      </c>
+      <c r="N34">
+        <v>1.39575429999998E-2</v>
+      </c>
+      <c r="O34">
+        <v>3.0767910000000002E-3</v>
+      </c>
+      <c r="P34">
+        <v>2.6050429999998998E-3</v>
+      </c>
+      <c r="Q34">
+        <v>2.7661669999999999E-3</v>
+      </c>
+      <c r="T34" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <f t="shared" ref="U34:U58" si="6">AVERAGE(B34,H34,N34)</f>
+        <v>1.14324036666665E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>3.3396803333333338E-3</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="5"/>
+        <v>4.3437639999998334E-3</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>5.2482919999999322E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -4373,8 +5799,51 @@
       <c r="E35">
         <v>4.9215419999999004E-3</v>
       </c>
+      <c r="H35">
+        <v>1.81522909999998E-2</v>
+      </c>
+      <c r="I35">
+        <v>4.3786659999999998E-3</v>
+      </c>
+      <c r="J35">
+        <v>3.2707080000000002E-3</v>
+      </c>
+      <c r="K35">
+        <v>3.3867079999998001E-3</v>
+      </c>
+      <c r="N35">
+        <v>4.8230458000000302E-2</v>
+      </c>
+      <c r="O35">
+        <v>4.7305429999998996E-3</v>
+      </c>
+      <c r="P35">
+        <v>3.036749E-3</v>
+      </c>
+      <c r="Q35">
+        <v>3.9768749999997003E-3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="6"/>
+        <v>2.3455735666666738E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>4.0486113333332999E-3</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>3.0319443333332668E-3</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>4.0950416666664666E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4390,8 +5859,51 @@
       <c r="E36">
         <v>2.5291680000000998E-3</v>
       </c>
+      <c r="H36">
+        <v>1.33983749999999E-2</v>
+      </c>
+      <c r="I36">
+        <v>3.0734569999999002E-3</v>
+      </c>
+      <c r="J36">
+        <v>2.7216670000000001E-3</v>
+      </c>
+      <c r="K36">
+        <v>2.5882079999999001E-3</v>
+      </c>
+      <c r="N36">
+        <v>2.3393332000000301E-2</v>
+      </c>
+      <c r="O36">
+        <v>6.1200829999997998E-3</v>
+      </c>
+      <c r="P36">
+        <v>2.9308750000001001E-3</v>
+      </c>
+      <c r="Q36">
+        <v>2.8981670000000999E-3</v>
+      </c>
+      <c r="T36" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="6"/>
+        <v>1.3289666E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="5"/>
+        <v>4.1117776666666E-3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="5"/>
+        <v>2.7982916666667002E-3</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>2.6718476666667003E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -4407,8 +5919,51 @@
       <c r="E37">
         <v>2.8171659999999999E-3</v>
       </c>
+      <c r="H37">
+        <v>1.27332079999999E-2</v>
+      </c>
+      <c r="I37">
+        <v>2.9346249999999E-3</v>
+      </c>
+      <c r="J37">
+        <v>2.9581249999999001E-3</v>
+      </c>
+      <c r="K37">
+        <v>2.8587909999999001E-3</v>
+      </c>
+      <c r="N37">
+        <v>1.3115376E-2</v>
+      </c>
+      <c r="O37">
+        <v>3.4077509999998999E-3</v>
+      </c>
+      <c r="P37">
+        <v>2.8404979999999999E-3</v>
+      </c>
+      <c r="Q37">
+        <v>3.7633749999999E-3</v>
+      </c>
+      <c r="T37" t="s">
+        <v>9</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="6"/>
+        <v>9.7566109999998995E-3</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="5"/>
+        <v>3.0993889999999E-3</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="5"/>
+        <v>2.9580546666666332E-3</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>3.1464439999999336E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -4424,8 +5979,51 @@
       <c r="E38">
         <v>7.1795409999998996E-3</v>
       </c>
+      <c r="H38">
+        <v>1.3175166000000099E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.8639579999999001E-3</v>
+      </c>
+      <c r="J38">
+        <v>3.8018749999999E-3</v>
+      </c>
+      <c r="K38">
+        <v>2.8715830000001002E-3</v>
+      </c>
+      <c r="N38">
+        <v>1.5904539999999901E-2</v>
+      </c>
+      <c r="O38">
+        <v>3.1293750000001E-3</v>
+      </c>
+      <c r="P38">
+        <v>2.8289179999997998E-3</v>
+      </c>
+      <c r="Q38">
+        <v>3.1350000000000999E-3</v>
+      </c>
+      <c r="T38" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="6"/>
+        <v>1.0760693666666599E-2</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>3.2869159999999336E-3</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="5"/>
+        <v>3.1429589999999331E-3</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>4.3953746666666998E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -4441,8 +6039,51 @@
       <c r="E39">
         <v>2.4479580000000001E-3</v>
       </c>
+      <c r="H39">
+        <v>1.4526248999999899E-2</v>
+      </c>
+      <c r="I39">
+        <v>3.9296669999998998E-3</v>
+      </c>
+      <c r="J39">
+        <v>3.062834E-3</v>
+      </c>
+      <c r="K39">
+        <v>2.6969589999998001E-3</v>
+      </c>
+      <c r="N39">
+        <v>1.37017489999999E-2</v>
+      </c>
+      <c r="O39">
+        <v>3.6841249999999002E-3</v>
+      </c>
+      <c r="P39">
+        <v>2.493459E-3</v>
+      </c>
+      <c r="Q39">
+        <v>2.385042E-3</v>
+      </c>
+      <c r="T39" t="s">
+        <v>11</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="6"/>
+        <v>1.0532054999999867E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>3.7524583333332002E-3</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="5"/>
+        <v>2.9441669999999663E-3</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>2.5099863333332664E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4458,8 +6099,51 @@
       <c r="E40">
         <v>2.8078339999999002E-3</v>
       </c>
+      <c r="H40">
+        <v>1.3257375E-2</v>
+      </c>
+      <c r="I40">
+        <v>3.9921239999999997E-3</v>
+      </c>
+      <c r="J40">
+        <v>2.7983340000001002E-3</v>
+      </c>
+      <c r="K40">
+        <v>4.0458319999997997E-3</v>
+      </c>
+      <c r="N40">
+        <v>1.3368750000000099E-2</v>
+      </c>
+      <c r="O40">
+        <v>2.9353339999996998E-3</v>
+      </c>
+      <c r="P40">
+        <v>2.4987919999998999E-3</v>
+      </c>
+      <c r="Q40">
+        <v>2.3914579999999002E-3</v>
+      </c>
+      <c r="T40" t="s">
+        <v>12</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="6"/>
+        <v>1.0080777999999966E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="5"/>
+        <v>3.1679723333331998E-3</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="5"/>
+        <v>2.6605416666666006E-3</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="5"/>
+        <v>3.0817079999998667E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4475,8 +6159,51 @@
       <c r="E41">
         <v>2.6421249999999002E-3</v>
       </c>
+      <c r="H41">
+        <v>1.6329707999999998E-2</v>
+      </c>
+      <c r="I41">
+        <v>3.6195820000000001E-3</v>
+      </c>
+      <c r="J41">
+        <v>3.0479169999999001E-3</v>
+      </c>
+      <c r="K41">
+        <v>3.1617919999998999E-3</v>
+      </c>
+      <c r="N41">
+        <v>4.2703709000000402E-2</v>
+      </c>
+      <c r="O41">
+        <v>1.7070749999999801E-2</v>
+      </c>
+      <c r="P41">
+        <v>5.8379589999998996E-3</v>
+      </c>
+      <c r="Q41">
+        <v>9.4153740000000007E-3</v>
+      </c>
+      <c r="T41" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="6"/>
+        <v>2.1156347333333502E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="5"/>
+        <v>7.891166333333267E-3</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="5"/>
+        <v>3.8949306666665666E-3</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="5"/>
+        <v>5.0730969999999336E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -4492,8 +6219,51 @@
       <c r="E42">
         <v>2.6098739999999999E-3</v>
       </c>
+      <c r="H42">
+        <v>1.3754292E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.1771660000001001E-3</v>
+      </c>
+      <c r="J42">
+        <v>2.5540830000001001E-3</v>
+      </c>
+      <c r="K42">
+        <v>3.1438750000001001E-3</v>
+      </c>
+      <c r="N42">
+        <v>2.1558499000000099E-2</v>
+      </c>
+      <c r="O42">
+        <v>3.7164180000001999E-3</v>
+      </c>
+      <c r="P42">
+        <v>2.5705839999998E-3</v>
+      </c>
+      <c r="Q42">
+        <v>2.4835009999999002E-3</v>
+      </c>
+      <c r="T42" t="s">
+        <v>14</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="6"/>
+        <v>1.29749996666667E-2</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="5"/>
+        <v>3.1407363333334336E-3</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="5"/>
+        <v>2.5650423333333002E-3</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="5"/>
+        <v>2.7457499999999999E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -4509,8 +6279,51 @@
       <c r="E43">
         <v>3.3082930000001001E-3</v>
       </c>
+      <c r="H43">
+        <v>1.4921541999999901E-2</v>
+      </c>
+      <c r="I43">
+        <v>3.4077930000000001E-3</v>
+      </c>
+      <c r="J43">
+        <v>2.4923750000001E-3</v>
+      </c>
+      <c r="K43">
+        <v>2.7184999999998001E-3</v>
+      </c>
+      <c r="N43">
+        <v>1.4925749000000099E-2</v>
+      </c>
+      <c r="O43">
+        <v>3.2141259999999999E-3</v>
+      </c>
+      <c r="P43">
+        <v>2.790126E-3</v>
+      </c>
+      <c r="Q43">
+        <v>2.7125420000000001E-3</v>
+      </c>
+      <c r="T43" t="s">
+        <v>15</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="6"/>
+        <v>1.1237097000000001E-2</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="5"/>
+        <v>3.3347089999999336E-3</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="5"/>
+        <v>2.6866530000000002E-3</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="5"/>
+        <v>2.9131116666666333E-3</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -4526,8 +6339,51 @@
       <c r="E44">
         <v>2.6348739999999E-3</v>
       </c>
+      <c r="H44">
+        <v>1.3383584E-2</v>
+      </c>
+      <c r="I44">
+        <v>3.7799569999998001E-3</v>
+      </c>
+      <c r="J44">
+        <v>2.5626669999999998E-3</v>
+      </c>
+      <c r="K44">
+        <v>2.7969989999998002E-3</v>
+      </c>
+      <c r="N44">
+        <v>3.4068540999999897E-2</v>
+      </c>
+      <c r="O44">
+        <v>4.6174590000003001E-3</v>
+      </c>
+      <c r="P44">
+        <v>2.8978330000004001E-3</v>
+      </c>
+      <c r="Q44">
+        <v>2.6484590000004E-3</v>
+      </c>
+      <c r="T44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="6"/>
+        <v>1.7006166666666565E-2</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="5"/>
+        <v>3.7409583333332997E-3</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="5"/>
+        <v>2.676944333333433E-3</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="5"/>
+        <v>2.6934440000000331E-3</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4543,8 +6399,51 @@
       <c r="E45">
         <v>2.8050829999999001E-3</v>
       </c>
+      <c r="H45">
+        <v>1.39674569999999E-2</v>
+      </c>
+      <c r="I45">
+        <v>3.3365410000000999E-3</v>
+      </c>
+      <c r="J45">
+        <v>3.0096669999999E-3</v>
+      </c>
+      <c r="K45">
+        <v>3.9232090000000004E-3</v>
+      </c>
+      <c r="N45">
+        <v>2.20962070000001E-2</v>
+      </c>
+      <c r="O45">
+        <v>4.6790410000000998E-3</v>
+      </c>
+      <c r="P45">
+        <v>3.8459579999998001E-3</v>
+      </c>
+      <c r="Q45">
+        <v>3.3077920000001001E-3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>17</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="6"/>
+        <v>1.3220221333333332E-2</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="5"/>
+        <v>3.6581243333333666E-3</v>
+      </c>
+      <c r="W45">
+        <f>AVERAGE(D45,J45,P45)</f>
+        <v>3.2120833333332001E-3</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="5"/>
+        <v>3.3453613333333334E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -4560,8 +6459,51 @@
       <c r="E46">
         <v>3.9630000000001001E-3</v>
       </c>
+      <c r="H46">
+        <v>1.90101649999996E-2</v>
+      </c>
+      <c r="I46">
+        <v>4.1609579999998996E-3</v>
+      </c>
+      <c r="J46">
+        <v>2.8414169999999E-3</v>
+      </c>
+      <c r="K46">
+        <v>2.8701669999997002E-3</v>
+      </c>
+      <c r="N46">
+        <v>2.3774500999999601E-2</v>
+      </c>
+      <c r="O46">
+        <v>4.3658330000000004E-3</v>
+      </c>
+      <c r="P46">
+        <v>2.9813340000001999E-3</v>
+      </c>
+      <c r="Q46">
+        <v>2.4947500000003001E-3</v>
+      </c>
+      <c r="T46" t="s">
+        <v>18</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="6"/>
+        <v>1.5414318999999732E-2</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="5"/>
+        <v>3.8275136666666662E-3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="5"/>
+        <v>2.840014000000033E-3</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="5"/>
+        <v>3.1093056666667003E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -4577,8 +6519,51 @@
       <c r="E47">
         <v>2.8849580000001001E-3</v>
       </c>
+      <c r="H47">
+        <v>1.27671259999999E-2</v>
+      </c>
+      <c r="I47">
+        <v>3.3563759999999001E-3</v>
+      </c>
+      <c r="J47">
+        <v>2.7583329999998E-3</v>
+      </c>
+      <c r="K47">
+        <v>2.9205829999998001E-3</v>
+      </c>
+      <c r="N47">
+        <v>1.3920416999999999E-2</v>
+      </c>
+      <c r="O47">
+        <v>3.0455839999998001E-3</v>
+      </c>
+      <c r="P47">
+        <v>2.5790420000000001E-3</v>
+      </c>
+      <c r="Q47">
+        <v>2.8138749999998998E-3</v>
+      </c>
+      <c r="T47" t="s">
+        <v>19</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="6"/>
+        <v>1.0252194666666666E-2</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="5"/>
+        <v>3.1327506666666005E-3</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="5"/>
+        <v>2.8771666666666004E-3</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="5"/>
+        <v>2.8731386666665999E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -4594,8 +6579,51 @@
       <c r="E48">
         <v>2.8749990000000998E-3</v>
       </c>
+      <c r="H48">
+        <v>1.6656707999999899E-2</v>
+      </c>
+      <c r="I48">
+        <v>3.4211669999999E-3</v>
+      </c>
+      <c r="J48">
+        <v>2.6850419999999002E-3</v>
+      </c>
+      <c r="K48">
+        <v>2.952376E-3</v>
+      </c>
+      <c r="N48">
+        <v>3.0689375000000099E-2</v>
+      </c>
+      <c r="O48">
+        <v>3.6909170000000999E-3</v>
+      </c>
+      <c r="P48">
+        <v>2.5434170000000001E-3</v>
+      </c>
+      <c r="Q48">
+        <v>2.9799170000001998E-3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>20</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="6"/>
+        <v>1.6817735666666667E-2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="5"/>
+        <v>3.2871949999999997E-3</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="5"/>
+        <v>2.6793893333332333E-3</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="5"/>
+        <v>2.9357640000000997E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -4611,8 +6639,51 @@
       <c r="E49">
         <v>2.9328340000000998E-3</v>
       </c>
+      <c r="H49">
+        <v>1.4362208E-2</v>
+      </c>
+      <c r="I49">
+        <v>3.2605849999997999E-3</v>
+      </c>
+      <c r="J49">
+        <v>3.4558749999999E-3</v>
+      </c>
+      <c r="K49">
+        <v>3.7233329999998999E-3</v>
+      </c>
+      <c r="N49">
+        <v>1.7934292000000001E-2</v>
+      </c>
+      <c r="O49">
+        <v>4.300084E-3</v>
+      </c>
+      <c r="P49">
+        <v>3.0829580000002002E-3</v>
+      </c>
+      <c r="Q49">
+        <v>2.9226679999999998E-3</v>
+      </c>
+      <c r="T49" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="6"/>
+        <v>1.1855541666666669E-2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" ref="V49:V58" si="7">AVERAGE(C49,I49,O49)</f>
+        <v>3.3956116666665668E-3</v>
+      </c>
+      <c r="W49">
+        <f t="shared" ref="W49:W58" si="8">AVERAGE(D49,J49,P49)</f>
+        <v>3.136083000000033E-3</v>
+      </c>
+      <c r="X49">
+        <f t="shared" ref="X49:X58" si="9">AVERAGE(E49,K49,Q49)</f>
+        <v>3.1929449999999996E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -4628,8 +6699,51 @@
       <c r="E50">
         <v>2.5580830000000001E-3</v>
       </c>
+      <c r="H50">
+        <v>1.32480429999999E-2</v>
+      </c>
+      <c r="I50">
+        <v>3.3537919999998998E-3</v>
+      </c>
+      <c r="J50">
+        <v>3.0258739999998998E-3</v>
+      </c>
+      <c r="K50">
+        <v>2.9055819999999001E-3</v>
+      </c>
+      <c r="N50">
+        <v>2.9069958999999999E-2</v>
+      </c>
+      <c r="O50">
+        <v>5.9631660000002999E-3</v>
+      </c>
+      <c r="P50">
+        <v>3.719792E-3</v>
+      </c>
+      <c r="Q50">
+        <v>6.0632510000000004E-3</v>
+      </c>
+      <c r="T50" t="s">
+        <v>22</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="6"/>
+        <v>1.5321222666666599E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="7"/>
+        <v>4.048556000000033E-3</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="8"/>
+        <v>3.2112499999999663E-3</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="9"/>
+        <v>3.8423053333333005E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4645,8 +6759,51 @@
       <c r="E51">
         <v>2.8657079999997999E-3</v>
       </c>
+      <c r="H51">
+        <v>1.2887208999999801E-2</v>
+      </c>
+      <c r="I51">
+        <v>3.5645829999998999E-3</v>
+      </c>
+      <c r="J51">
+        <v>2.6415840000000002E-3</v>
+      </c>
+      <c r="K51">
+        <v>2.9314170000001001E-3</v>
+      </c>
+      <c r="N51">
+        <v>2.1978707999999701E-2</v>
+      </c>
+      <c r="O51">
+        <v>3.6270409999995998E-3</v>
+      </c>
+      <c r="P51">
+        <v>4.341208E-3</v>
+      </c>
+      <c r="Q51">
+        <v>4.7416670000002001E-3</v>
+      </c>
+      <c r="T51" t="s">
+        <v>23</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="6"/>
+        <v>1.2827111666666433E-2</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="7"/>
+        <v>3.2986939999998001E-3</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="8"/>
+        <v>3.2315273333332999E-3</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="9"/>
+        <v>3.5129306666666998E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -4662,8 +6819,51 @@
       <c r="E52">
         <v>2.5676670000000998E-3</v>
       </c>
+      <c r="H52">
+        <v>1.36197910000002E-2</v>
+      </c>
+      <c r="I52">
+        <v>3.9890409999999996E-3</v>
+      </c>
+      <c r="J52">
+        <v>4.3144579999997998E-3</v>
+      </c>
+      <c r="K52">
+        <v>3.0364600000001001E-3</v>
+      </c>
+      <c r="N52">
+        <v>1.4192457999999899E-2</v>
+      </c>
+      <c r="O52">
+        <v>3.0414170000001E-3</v>
+      </c>
+      <c r="P52">
+        <v>2.4657919999998999E-3</v>
+      </c>
+      <c r="Q52">
+        <v>2.7535409999998998E-3</v>
+      </c>
+      <c r="T52" t="s">
+        <v>24</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="6"/>
+        <v>1.0364735666666633E-2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="7"/>
+        <v>3.2150560000000334E-3</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="8"/>
+        <v>3.1167363333331663E-3</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="9"/>
+        <v>2.7858893333333663E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -4679,8 +6879,51 @@
       <c r="E53">
         <v>3.2989579999997002E-3</v>
       </c>
+      <c r="H53">
+        <v>1.4564667999999999E-2</v>
+      </c>
+      <c r="I53">
+        <v>4.9521240000001002E-3</v>
+      </c>
+      <c r="J53">
+        <v>3.0188739999998E-3</v>
+      </c>
+      <c r="K53">
+        <v>2.6303330000001001E-3</v>
+      </c>
+      <c r="N53">
+        <v>3.1951582999999603E-2</v>
+      </c>
+      <c r="O53">
+        <v>4.3518750000002002E-3</v>
+      </c>
+      <c r="P53">
+        <v>2.7853339999998998E-3</v>
+      </c>
+      <c r="Q53">
+        <v>2.9150410000000002E-3</v>
+      </c>
+      <c r="T53" t="s">
+        <v>25</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="6"/>
+        <v>1.6855833666666532E-2</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="7"/>
+        <v>4.0279436666667669E-3</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="8"/>
+        <v>2.9431526666664994E-3</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="9"/>
+        <v>2.9481106666666003E-3</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -4696,8 +6939,51 @@
       <c r="E54">
         <v>2.9954579999999999E-3</v>
       </c>
+      <c r="H54">
+        <v>1.51130839999999E-2</v>
+      </c>
+      <c r="I54">
+        <v>3.664708E-3</v>
+      </c>
+      <c r="J54">
+        <v>3.1294169999999998E-3</v>
+      </c>
+      <c r="K54">
+        <v>2.5442079999998999E-3</v>
+      </c>
+      <c r="N54">
+        <v>2.49492510000002E-2</v>
+      </c>
+      <c r="O54">
+        <v>3.1873339999996999E-3</v>
+      </c>
+      <c r="P54">
+        <v>3.1091249999999002E-3</v>
+      </c>
+      <c r="Q54">
+        <v>2.8660409999997998E-3</v>
+      </c>
+      <c r="T54" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="6"/>
+        <v>1.4474986666666698E-2</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="7"/>
+        <v>3.1201526666665333E-3</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="8"/>
+        <v>3.0227916666666333E-3</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="9"/>
+        <v>2.8019023333332332E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -4713,8 +6999,51 @@
       <c r="E55">
         <v>2.5037919999999002E-3</v>
       </c>
+      <c r="H55">
+        <v>1.5330166999999799E-2</v>
+      </c>
+      <c r="I55">
+        <v>4.1795000000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>2.6321249999998E-3</v>
+      </c>
+      <c r="K55">
+        <v>2.7696249999999002E-3</v>
+      </c>
+      <c r="N55">
+        <v>1.3779791999999701E-2</v>
+      </c>
+      <c r="O55">
+        <v>3.4140409999998001E-3</v>
+      </c>
+      <c r="P55">
+        <v>2.725042E-3</v>
+      </c>
+      <c r="Q55">
+        <v>3.8388329999999998E-3</v>
+      </c>
+      <c r="T55" t="s">
+        <v>27</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="6"/>
+        <v>1.0748805666666467E-2</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="7"/>
+        <v>3.6872636666666E-3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="8"/>
+        <v>2.692069333333233E-3</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="9"/>
+        <v>3.0374166666666002E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -4730,8 +7059,51 @@
       <c r="E56">
         <v>2.8951249999998999E-3</v>
       </c>
+      <c r="H56">
+        <v>1.62506659999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>3.9154569999999E-3</v>
+      </c>
+      <c r="J56">
+        <v>3.0383759999997998E-3</v>
+      </c>
+      <c r="K56">
+        <v>2.7557489999998001E-3</v>
+      </c>
+      <c r="N56">
+        <v>2.2559459E-2</v>
+      </c>
+      <c r="O56">
+        <v>4.8281660000002004E-3</v>
+      </c>
+      <c r="P56">
+        <v>2.9801659999999001E-3</v>
+      </c>
+      <c r="Q56">
+        <v>2.9064999999999E-3</v>
+      </c>
+      <c r="T56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="6"/>
+        <v>1.4233055666666666E-2</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="7"/>
+        <v>3.8119433333333335E-3</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="8"/>
+        <v>2.9028056666665337E-3</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="9"/>
+        <v>2.8524579999998669E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -4747,8 +7119,51 @@
       <c r="E57">
         <v>3.1140400000000002E-3</v>
       </c>
+      <c r="H57">
+        <v>1.5474376E-2</v>
+      </c>
+      <c r="I57">
+        <v>3.2085429999999002E-3</v>
+      </c>
+      <c r="J57">
+        <v>2.7446249999998002E-3</v>
+      </c>
+      <c r="K57">
+        <v>2.5956249999997999E-3</v>
+      </c>
+      <c r="N57">
+        <v>4.4807000999999597E-2</v>
+      </c>
+      <c r="O57">
+        <v>4.2154580000000001E-3</v>
+      </c>
+      <c r="P57">
+        <v>3.3292909999999998E-3</v>
+      </c>
+      <c r="Q57">
+        <v>4.1557499999996996E-3</v>
+      </c>
+      <c r="T57" t="s">
+        <v>29</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="6"/>
+        <v>2.1236153666666563E-2</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="7"/>
+        <v>3.4144169999999335E-3</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="8"/>
+        <v>3.1694026666666333E-3</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="9"/>
+        <v>3.2884716666664996E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -4763,6 +7178,49 @@
       </c>
       <c r="E58">
         <v>3.1366670000000998E-3</v>
+      </c>
+      <c r="H58">
+        <v>1.4274791E-2</v>
+      </c>
+      <c r="I58">
+        <v>3.3179580000000002E-3</v>
+      </c>
+      <c r="J58">
+        <v>2.6767920000001001E-3</v>
+      </c>
+      <c r="K58">
+        <v>2.5849149999998999E-3</v>
+      </c>
+      <c r="N58">
+        <v>2.3427541000000201E-2</v>
+      </c>
+      <c r="O58">
+        <v>4.2017910000002002E-3</v>
+      </c>
+      <c r="P58">
+        <v>3.4949180000003002E-3</v>
+      </c>
+      <c r="Q58">
+        <v>2.8313739999997999E-3</v>
+      </c>
+      <c r="T58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="6"/>
+        <v>1.3704263333333402E-2</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="7"/>
+        <v>3.4103883333334336E-3</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="8"/>
+        <v>3.0197086666667997E-3</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="9"/>
+        <v>2.8509853333332663E-3</v>
       </c>
     </row>
   </sheetData>
